--- a/Management/Vanam Mk-1 SSMPLV BOM.xlsx
+++ b/Management/Vanam Mk-1 SSMPLV BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shree\Vanam_MK1\Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FBED058-BB3B-45A9-82CC-36D5AE18A4D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C521C621-6D93-4CEB-9EE3-385B72B4A236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B2ED1C86-44CC-43F2-BE49-DC149AF92B4D}"/>
   </bookViews>
@@ -108,9 +108,6 @@
     <t>Recovery</t>
   </si>
   <si>
-    <t>Paid by</t>
-  </si>
-  <si>
     <t>Shreeram</t>
   </si>
   <si>
@@ -139,6 +136,9 @@
   </si>
   <si>
     <t>Vanam Mk-1 SSMPLV BOM</t>
+  </si>
+  <si>
+    <t>Bought by</t>
   </si>
 </sst>
 </file>
@@ -218,14 +218,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -550,7 +549,7 @@
   <dimension ref="A1:L200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -559,14 +558,15 @@
     <col min="2" max="2" width="37.88671875" customWidth="1"/>
     <col min="5" max="5" width="12.5546875" customWidth="1"/>
     <col min="6" max="6" width="16.44140625" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" customWidth="1"/>
     <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.21875" customWidth="1"/>
     <col min="11" max="11" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.35">
-      <c r="B1" s="8" t="s">
-        <v>34</v>
+      <c r="B1" s="7" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -585,17 +585,17 @@
       <c r="E3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>33</v>
+      <c r="G3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -614,16 +614,16 @@
       <c r="E4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H4" s="1">
         <v>1</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="8">
         <v>45727</v>
       </c>
     </row>
@@ -643,16 +643,16 @@
       <c r="E5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H5" s="1">
         <v>1</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="8">
         <v>45727</v>
       </c>
     </row>
@@ -672,16 +672,16 @@
       <c r="E6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>22</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H6" s="1">
         <v>1</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="8">
         <v>45727</v>
       </c>
     </row>
@@ -701,16 +701,16 @@
       <c r="E7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>22</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H7" s="1">
         <v>1</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="8">
         <v>45727</v>
       </c>
     </row>
@@ -730,16 +730,16 @@
       <c r="E8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>22</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H8" s="1">
         <v>1</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="8">
         <v>45727</v>
       </c>
     </row>
@@ -759,20 +759,20 @@
       <c r="E9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H9" s="1">
         <v>1</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="8">
         <v>45727</v>
       </c>
-      <c r="K9" s="7" t="s">
-        <v>31</v>
+      <c r="K9" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="L9">
         <f>SUM(D4:D200)</f>
@@ -795,16 +795,16 @@
       <c r="E10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H10" s="1">
         <v>1</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="8">
         <v>45727</v>
       </c>
     </row>
@@ -824,16 +824,16 @@
       <c r="E11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H11" s="1">
         <v>1</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="8">
         <v>45727</v>
       </c>
     </row>
@@ -844,7 +844,7 @@
       <c r="B12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D12" s="1">
@@ -853,16 +853,16 @@
       <c r="E12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="5" t="s">
         <v>23</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H12" s="1">
         <v>1</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="8">
         <v>45727</v>
       </c>
     </row>
@@ -882,16 +882,16 @@
       <c r="E13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="5" t="s">
         <v>23</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H13" s="1">
         <v>1</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="8">
         <v>45727</v>
       </c>
     </row>
@@ -911,16 +911,16 @@
       <c r="E14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="5" t="s">
         <v>22</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H14" s="1">
         <v>1</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="8">
         <v>45731</v>
       </c>
     </row>
@@ -929,7 +929,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" s="1">
         <v>3</v>
@@ -938,18 +938,18 @@
         <v>1850</v>
       </c>
       <c r="E15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="G15" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="H15" s="1">
         <v>1</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="8">
         <v>45726</v>
       </c>
     </row>
@@ -958,7 +958,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C16" s="1">
         <v>5</v>
@@ -969,16 +969,16 @@
       <c r="E16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="5" t="s">
         <v>22</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H16" s="1">
         <v>2</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I16" s="8">
         <v>45738</v>
       </c>
     </row>
@@ -990,7 +990,7 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="6"/>
+      <c r="F17" s="5"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -1003,7 +1003,7 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="6"/>
+      <c r="F18" s="5"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -1016,7 +1016,7 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="6"/>
+      <c r="F19" s="5"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -1029,7 +1029,7 @@
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="6"/>
+      <c r="F20" s="5"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -1040,7 +1040,7 @@
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="6"/>
+      <c r="F21" s="5"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -1051,7 +1051,7 @@
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="6"/>
+      <c r="F22" s="5"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -1062,7 +1062,7 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="6"/>
+      <c r="F23" s="5"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -1073,7 +1073,7 @@
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="6"/>
+      <c r="F24" s="5"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -1084,7 +1084,7 @@
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="6"/>
+      <c r="F25" s="5"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -1095,7 +1095,7 @@
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="6"/>
+      <c r="F26" s="5"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -1106,7 +1106,7 @@
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="6"/>
+      <c r="F27" s="5"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -1117,7 +1117,7 @@
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="6"/>
+      <c r="F28" s="5"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -1128,7 +1128,7 @@
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
-      <c r="F29" s="6"/>
+      <c r="F29" s="5"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -1139,7 +1139,7 @@
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="6"/>
+      <c r="F30" s="5"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -1150,7 +1150,7 @@
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="6"/>
+      <c r="F31" s="5"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -1161,7 +1161,7 @@
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="6"/>
+      <c r="F32" s="5"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -1172,7 +1172,7 @@
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
-      <c r="F33" s="6"/>
+      <c r="F33" s="5"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -1183,7 +1183,7 @@
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
-      <c r="F34" s="6"/>
+      <c r="F34" s="5"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -1194,7 +1194,7 @@
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
-      <c r="F35" s="6"/>
+      <c r="F35" s="5"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -1205,7 +1205,7 @@
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
-      <c r="F36" s="6"/>
+      <c r="F36" s="5"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -1216,7 +1216,7 @@
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
-      <c r="F37" s="6"/>
+      <c r="F37" s="5"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -1227,7 +1227,7 @@
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
-      <c r="F38" s="6"/>
+      <c r="F38" s="5"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
@@ -1238,7 +1238,7 @@
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
-      <c r="F39" s="6"/>
+      <c r="F39" s="5"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
@@ -1249,7 +1249,7 @@
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
-      <c r="F40" s="6"/>
+      <c r="F40" s="5"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -1260,7 +1260,7 @@
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
-      <c r="F41" s="6"/>
+      <c r="F41" s="5"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
@@ -1271,7 +1271,7 @@
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
-      <c r="F42" s="6"/>
+      <c r="F42" s="5"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
@@ -1282,7 +1282,7 @@
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
-      <c r="F43" s="6"/>
+      <c r="F43" s="5"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
@@ -1293,7 +1293,7 @@
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="6"/>
+      <c r="F44" s="5"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
@@ -1304,7 +1304,7 @@
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
-      <c r="F45" s="6"/>
+      <c r="F45" s="5"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
@@ -1315,7 +1315,7 @@
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
-      <c r="F46" s="6"/>
+      <c r="F46" s="5"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
@@ -1326,7 +1326,7 @@
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
-      <c r="F47" s="6"/>
+      <c r="F47" s="5"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
@@ -1337,7 +1337,7 @@
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
-      <c r="F48" s="6"/>
+      <c r="F48" s="5"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
@@ -1348,7 +1348,7 @@
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
-      <c r="F49" s="6"/>
+      <c r="F49" s="5"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
@@ -1359,7 +1359,7 @@
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
-      <c r="F50" s="6"/>
+      <c r="F50" s="5"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
@@ -1370,7 +1370,7 @@
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
-      <c r="F51" s="6"/>
+      <c r="F51" s="5"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
@@ -1381,7 +1381,7 @@
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
-      <c r="F52" s="6"/>
+      <c r="F52" s="5"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
@@ -1392,7 +1392,7 @@
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
-      <c r="F53" s="6"/>
+      <c r="F53" s="5"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
@@ -1403,7 +1403,7 @@
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
-      <c r="F54" s="6"/>
+      <c r="F54" s="5"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
@@ -1414,7 +1414,7 @@
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
-      <c r="F55" s="6"/>
+      <c r="F55" s="5"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
@@ -1425,7 +1425,7 @@
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
-      <c r="F56" s="6"/>
+      <c r="F56" s="5"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
@@ -1436,7 +1436,7 @@
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
-      <c r="F57" s="6"/>
+      <c r="F57" s="5"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
@@ -1447,7 +1447,7 @@
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
-      <c r="F58" s="6"/>
+      <c r="F58" s="5"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
@@ -1458,7 +1458,7 @@
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
-      <c r="F59" s="6"/>
+      <c r="F59" s="5"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
@@ -1469,7 +1469,7 @@
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
-      <c r="F60" s="6"/>
+      <c r="F60" s="5"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
@@ -1480,7 +1480,7 @@
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
-      <c r="F61" s="6"/>
+      <c r="F61" s="5"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
@@ -1491,7 +1491,7 @@
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
-      <c r="F62" s="6"/>
+      <c r="F62" s="5"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
@@ -1502,7 +1502,7 @@
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
-      <c r="F63" s="6"/>
+      <c r="F63" s="5"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
@@ -1513,7 +1513,7 @@
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
-      <c r="F64" s="6"/>
+      <c r="F64" s="5"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
@@ -1524,7 +1524,7 @@
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
-      <c r="F65" s="6"/>
+      <c r="F65" s="5"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
@@ -1535,7 +1535,7 @@
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
-      <c r="F66" s="6"/>
+      <c r="F66" s="5"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
@@ -1546,7 +1546,7 @@
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
-      <c r="F67" s="6"/>
+      <c r="F67" s="5"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
@@ -1557,7 +1557,7 @@
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
-      <c r="F68" s="6"/>
+      <c r="F68" s="5"/>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
@@ -1568,7 +1568,7 @@
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
-      <c r="F69" s="6"/>
+      <c r="F69" s="5"/>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
@@ -1579,7 +1579,7 @@
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
-      <c r="F70" s="6"/>
+      <c r="F70" s="5"/>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
@@ -1590,7 +1590,7 @@
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
-      <c r="F71" s="6"/>
+      <c r="F71" s="5"/>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
@@ -1601,7 +1601,7 @@
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
-      <c r="F72" s="6"/>
+      <c r="F72" s="5"/>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
@@ -1612,7 +1612,7 @@
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
-      <c r="F73" s="6"/>
+      <c r="F73" s="5"/>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
@@ -1623,7 +1623,7 @@
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
-      <c r="F74" s="6"/>
+      <c r="F74" s="5"/>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
@@ -1634,7 +1634,7 @@
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
-      <c r="F75" s="6"/>
+      <c r="F75" s="5"/>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
@@ -1645,7 +1645,7 @@
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
-      <c r="F76" s="6"/>
+      <c r="F76" s="5"/>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
@@ -1656,7 +1656,7 @@
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
-      <c r="F77" s="6"/>
+      <c r="F77" s="5"/>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
@@ -1667,7 +1667,7 @@
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
-      <c r="F78" s="6"/>
+      <c r="F78" s="5"/>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
@@ -1678,7 +1678,7 @@
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
-      <c r="F79" s="6"/>
+      <c r="F79" s="5"/>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
@@ -1689,7 +1689,7 @@
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
-      <c r="F80" s="6"/>
+      <c r="F80" s="5"/>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
@@ -1700,7 +1700,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
-      <c r="F81" s="6"/>
+      <c r="F81" s="5"/>
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
@@ -1711,7 +1711,7 @@
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
-      <c r="F82" s="6"/>
+      <c r="F82" s="5"/>
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
@@ -1722,7 +1722,7 @@
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
-      <c r="F83" s="6"/>
+      <c r="F83" s="5"/>
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
@@ -1733,7 +1733,7 @@
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
-      <c r="F84" s="6"/>
+      <c r="F84" s="5"/>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
@@ -1744,7 +1744,7 @@
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
-      <c r="F85" s="6"/>
+      <c r="F85" s="5"/>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
@@ -1755,7 +1755,7 @@
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
-      <c r="F86" s="6"/>
+      <c r="F86" s="5"/>
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
@@ -1766,7 +1766,7 @@
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
-      <c r="F87" s="6"/>
+      <c r="F87" s="5"/>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
@@ -1777,7 +1777,7 @@
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
-      <c r="F88" s="6"/>
+      <c r="F88" s="5"/>
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
@@ -1788,7 +1788,7 @@
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
-      <c r="F89" s="6"/>
+      <c r="F89" s="5"/>
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
@@ -1799,7 +1799,7 @@
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
-      <c r="F90" s="6"/>
+      <c r="F90" s="5"/>
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
@@ -1810,7 +1810,7 @@
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
-      <c r="F91" s="6"/>
+      <c r="F91" s="5"/>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
@@ -1821,7 +1821,7 @@
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
-      <c r="F92" s="6"/>
+      <c r="F92" s="5"/>
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
@@ -1832,7 +1832,7 @@
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
-      <c r="F93" s="6"/>
+      <c r="F93" s="5"/>
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
@@ -1843,7 +1843,7 @@
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
-      <c r="F94" s="6"/>
+      <c r="F94" s="5"/>
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
@@ -1854,7 +1854,7 @@
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
-      <c r="F95" s="6"/>
+      <c r="F95" s="5"/>
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
@@ -1865,7 +1865,7 @@
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
-      <c r="F96" s="6"/>
+      <c r="F96" s="5"/>
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
@@ -1876,7 +1876,7 @@
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
-      <c r="F97" s="6"/>
+      <c r="F97" s="5"/>
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
@@ -1887,7 +1887,7 @@
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
-      <c r="F98" s="6"/>
+      <c r="F98" s="5"/>
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
@@ -1898,7 +1898,7 @@
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
-      <c r="F99" s="6"/>
+      <c r="F99" s="5"/>
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
@@ -1909,7 +1909,7 @@
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
-      <c r="F100" s="6"/>
+      <c r="F100" s="5"/>
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
@@ -1920,7 +1920,7 @@
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
-      <c r="F101" s="6"/>
+      <c r="F101" s="5"/>
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
@@ -1931,7 +1931,7 @@
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
-      <c r="F102" s="6"/>
+      <c r="F102" s="5"/>
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
@@ -1942,7 +1942,7 @@
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
-      <c r="F103" s="6"/>
+      <c r="F103" s="5"/>
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
@@ -1953,7 +1953,7 @@
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
-      <c r="F104" s="6"/>
+      <c r="F104" s="5"/>
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
@@ -1964,7 +1964,7 @@
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
-      <c r="F105" s="6"/>
+      <c r="F105" s="5"/>
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
@@ -1975,7 +1975,7 @@
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
-      <c r="F106" s="6"/>
+      <c r="F106" s="5"/>
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
@@ -1986,7 +1986,7 @@
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
-      <c r="F107" s="6"/>
+      <c r="F107" s="5"/>
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
@@ -1997,7 +1997,7 @@
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
-      <c r="F108" s="6"/>
+      <c r="F108" s="5"/>
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
@@ -2008,7 +2008,7 @@
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
-      <c r="F109" s="6"/>
+      <c r="F109" s="5"/>
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
@@ -2019,7 +2019,7 @@
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
-      <c r="F110" s="6"/>
+      <c r="F110" s="5"/>
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
@@ -2030,7 +2030,7 @@
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
-      <c r="F111" s="6"/>
+      <c r="F111" s="5"/>
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
@@ -2041,7 +2041,7 @@
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
-      <c r="F112" s="6"/>
+      <c r="F112" s="5"/>
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
@@ -2052,7 +2052,7 @@
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
-      <c r="F113" s="6"/>
+      <c r="F113" s="5"/>
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
@@ -2063,7 +2063,7 @@
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
-      <c r="F114" s="6"/>
+      <c r="F114" s="5"/>
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
@@ -2074,7 +2074,7 @@
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
-      <c r="F115" s="6"/>
+      <c r="F115" s="5"/>
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
@@ -2085,7 +2085,7 @@
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
-      <c r="F116" s="6"/>
+      <c r="F116" s="5"/>
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
@@ -2096,7 +2096,7 @@
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
-      <c r="F117" s="6"/>
+      <c r="F117" s="5"/>
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
@@ -2107,7 +2107,7 @@
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
-      <c r="F118" s="6"/>
+      <c r="F118" s="5"/>
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
@@ -2118,7 +2118,7 @@
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
-      <c r="F119" s="6"/>
+      <c r="F119" s="5"/>
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
@@ -2129,7 +2129,7 @@
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
-      <c r="F120" s="6"/>
+      <c r="F120" s="5"/>
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
@@ -2140,7 +2140,7 @@
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
-      <c r="F121" s="6"/>
+      <c r="F121" s="5"/>
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
@@ -2151,7 +2151,7 @@
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
-      <c r="F122" s="6"/>
+      <c r="F122" s="5"/>
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
@@ -2162,7 +2162,7 @@
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
-      <c r="F123" s="6"/>
+      <c r="F123" s="5"/>
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
@@ -2173,7 +2173,7 @@
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
-      <c r="F124" s="6"/>
+      <c r="F124" s="5"/>
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
@@ -2184,7 +2184,7 @@
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
-      <c r="F125" s="6"/>
+      <c r="F125" s="5"/>
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
       <c r="I125" s="1"/>
@@ -2195,7 +2195,7 @@
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
-      <c r="F126" s="6"/>
+      <c r="F126" s="5"/>
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
@@ -2206,7 +2206,7 @@
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
-      <c r="F127" s="6"/>
+      <c r="F127" s="5"/>
       <c r="G127" s="1"/>
       <c r="H127" s="1"/>
       <c r="I127" s="1"/>
@@ -2217,7 +2217,7 @@
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
-      <c r="F128" s="6"/>
+      <c r="F128" s="5"/>
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
@@ -2228,7 +2228,7 @@
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
-      <c r="F129" s="6"/>
+      <c r="F129" s="5"/>
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
@@ -2239,7 +2239,7 @@
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
-      <c r="F130" s="6"/>
+      <c r="F130" s="5"/>
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
@@ -2250,7 +2250,7 @@
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
-      <c r="F131" s="6"/>
+      <c r="F131" s="5"/>
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
       <c r="I131" s="1"/>
@@ -2261,7 +2261,7 @@
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
-      <c r="F132" s="6"/>
+      <c r="F132" s="5"/>
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
@@ -2272,7 +2272,7 @@
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
-      <c r="F133" s="6"/>
+      <c r="F133" s="5"/>
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
       <c r="I133" s="1"/>
@@ -2283,7 +2283,7 @@
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
-      <c r="F134" s="6"/>
+      <c r="F134" s="5"/>
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
       <c r="I134" s="1"/>
@@ -2294,7 +2294,7 @@
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
-      <c r="F135" s="6"/>
+      <c r="F135" s="5"/>
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
       <c r="I135" s="1"/>
@@ -2305,7 +2305,7 @@
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
-      <c r="F136" s="6"/>
+      <c r="F136" s="5"/>
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
       <c r="I136" s="1"/>
@@ -2316,7 +2316,7 @@
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
-      <c r="F137" s="6"/>
+      <c r="F137" s="5"/>
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
       <c r="I137" s="1"/>
@@ -2327,7 +2327,7 @@
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
-      <c r="F138" s="6"/>
+      <c r="F138" s="5"/>
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
       <c r="I138" s="1"/>
@@ -2338,7 +2338,7 @@
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
-      <c r="F139" s="6"/>
+      <c r="F139" s="5"/>
       <c r="G139" s="1"/>
       <c r="H139" s="1"/>
       <c r="I139" s="1"/>
@@ -2349,7 +2349,7 @@
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
-      <c r="F140" s="6"/>
+      <c r="F140" s="5"/>
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
       <c r="I140" s="1"/>
@@ -2360,7 +2360,7 @@
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
-      <c r="F141" s="6"/>
+      <c r="F141" s="5"/>
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
       <c r="I141" s="1"/>
@@ -2371,7 +2371,7 @@
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
-      <c r="F142" s="6"/>
+      <c r="F142" s="5"/>
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
       <c r="I142" s="1"/>
@@ -2382,7 +2382,7 @@
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
-      <c r="F143" s="6"/>
+      <c r="F143" s="5"/>
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
       <c r="I143" s="1"/>
@@ -2393,7 +2393,7 @@
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
-      <c r="F144" s="6"/>
+      <c r="F144" s="5"/>
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
       <c r="I144" s="1"/>
@@ -2404,7 +2404,7 @@
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
-      <c r="F145" s="6"/>
+      <c r="F145" s="5"/>
       <c r="G145" s="1"/>
       <c r="H145" s="1"/>
       <c r="I145" s="1"/>
@@ -2415,7 +2415,7 @@
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
-      <c r="F146" s="6"/>
+      <c r="F146" s="5"/>
       <c r="G146" s="1"/>
       <c r="H146" s="1"/>
       <c r="I146" s="1"/>
@@ -2426,7 +2426,7 @@
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
-      <c r="F147" s="6"/>
+      <c r="F147" s="5"/>
       <c r="G147" s="1"/>
       <c r="H147" s="1"/>
       <c r="I147" s="1"/>
@@ -2437,7 +2437,7 @@
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
-      <c r="F148" s="6"/>
+      <c r="F148" s="5"/>
       <c r="G148" s="1"/>
       <c r="H148" s="1"/>
       <c r="I148" s="1"/>
@@ -2448,7 +2448,7 @@
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
-      <c r="F149" s="6"/>
+      <c r="F149" s="5"/>
       <c r="G149" s="1"/>
       <c r="H149" s="1"/>
       <c r="I149" s="1"/>
@@ -2459,7 +2459,7 @@
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
-      <c r="F150" s="6"/>
+      <c r="F150" s="5"/>
       <c r="G150" s="1"/>
       <c r="H150" s="1"/>
       <c r="I150" s="1"/>
@@ -2470,7 +2470,7 @@
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
-      <c r="F151" s="6"/>
+      <c r="F151" s="5"/>
       <c r="G151" s="1"/>
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
@@ -2481,7 +2481,7 @@
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
-      <c r="F152" s="6"/>
+      <c r="F152" s="5"/>
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
@@ -2492,7 +2492,7 @@
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
-      <c r="F153" s="6"/>
+      <c r="F153" s="5"/>
       <c r="G153" s="1"/>
       <c r="H153" s="1"/>
       <c r="I153" s="1"/>
@@ -2503,7 +2503,7 @@
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
-      <c r="F154" s="6"/>
+      <c r="F154" s="5"/>
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
       <c r="I154" s="1"/>
@@ -2514,7 +2514,7 @@
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
-      <c r="F155" s="6"/>
+      <c r="F155" s="5"/>
       <c r="G155" s="1"/>
       <c r="H155" s="1"/>
       <c r="I155" s="1"/>
@@ -2525,7 +2525,7 @@
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
-      <c r="F156" s="6"/>
+      <c r="F156" s="5"/>
       <c r="G156" s="1"/>
       <c r="H156" s="1"/>
       <c r="I156" s="1"/>
@@ -2536,7 +2536,7 @@
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
-      <c r="F157" s="6"/>
+      <c r="F157" s="5"/>
       <c r="G157" s="1"/>
       <c r="H157" s="1"/>
       <c r="I157" s="1"/>
@@ -2547,7 +2547,7 @@
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
-      <c r="F158" s="6"/>
+      <c r="F158" s="5"/>
       <c r="G158" s="1"/>
       <c r="H158" s="1"/>
       <c r="I158" s="1"/>
@@ -2558,7 +2558,7 @@
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
-      <c r="F159" s="6"/>
+      <c r="F159" s="5"/>
       <c r="G159" s="1"/>
       <c r="H159" s="1"/>
       <c r="I159" s="1"/>
@@ -2569,7 +2569,7 @@
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
-      <c r="F160" s="6"/>
+      <c r="F160" s="5"/>
       <c r="G160" s="1"/>
       <c r="H160" s="1"/>
       <c r="I160" s="1"/>
@@ -2580,7 +2580,7 @@
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
-      <c r="F161" s="6"/>
+      <c r="F161" s="5"/>
       <c r="G161" s="1"/>
       <c r="H161" s="1"/>
       <c r="I161" s="1"/>
@@ -2591,7 +2591,7 @@
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
-      <c r="F162" s="6"/>
+      <c r="F162" s="5"/>
       <c r="G162" s="1"/>
       <c r="H162" s="1"/>
       <c r="I162" s="1"/>
@@ -2602,7 +2602,7 @@
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
-      <c r="F163" s="6"/>
+      <c r="F163" s="5"/>
       <c r="G163" s="1"/>
       <c r="H163" s="1"/>
       <c r="I163" s="1"/>
@@ -2613,7 +2613,7 @@
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
-      <c r="F164" s="6"/>
+      <c r="F164" s="5"/>
       <c r="G164" s="1"/>
       <c r="H164" s="1"/>
       <c r="I164" s="1"/>
@@ -2624,7 +2624,7 @@
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
-      <c r="F165" s="6"/>
+      <c r="F165" s="5"/>
       <c r="G165" s="1"/>
       <c r="H165" s="1"/>
       <c r="I165" s="1"/>
@@ -2635,7 +2635,7 @@
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
-      <c r="F166" s="6"/>
+      <c r="F166" s="5"/>
       <c r="G166" s="1"/>
       <c r="H166" s="1"/>
       <c r="I166" s="1"/>
@@ -2646,7 +2646,7 @@
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
-      <c r="F167" s="6"/>
+      <c r="F167" s="5"/>
       <c r="G167" s="1"/>
       <c r="H167" s="1"/>
       <c r="I167" s="1"/>
@@ -2657,7 +2657,7 @@
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
-      <c r="F168" s="6"/>
+      <c r="F168" s="5"/>
       <c r="G168" s="1"/>
       <c r="H168" s="1"/>
       <c r="I168" s="1"/>
@@ -2668,7 +2668,7 @@
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
-      <c r="F169" s="6"/>
+      <c r="F169" s="5"/>
       <c r="G169" s="1"/>
       <c r="H169" s="1"/>
       <c r="I169" s="1"/>
@@ -2679,7 +2679,7 @@
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
       <c r="E170" s="1"/>
-      <c r="F170" s="6"/>
+      <c r="F170" s="5"/>
       <c r="G170" s="1"/>
       <c r="H170" s="1"/>
       <c r="I170" s="1"/>
@@ -2690,7 +2690,7 @@
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
-      <c r="F171" s="6"/>
+      <c r="F171" s="5"/>
       <c r="G171" s="1"/>
       <c r="H171" s="1"/>
       <c r="I171" s="1"/>
@@ -2701,7 +2701,7 @@
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
-      <c r="F172" s="6"/>
+      <c r="F172" s="5"/>
       <c r="G172" s="1"/>
       <c r="H172" s="1"/>
       <c r="I172" s="1"/>
@@ -2712,7 +2712,7 @@
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
-      <c r="F173" s="6"/>
+      <c r="F173" s="5"/>
       <c r="G173" s="1"/>
       <c r="H173" s="1"/>
       <c r="I173" s="1"/>
@@ -2723,7 +2723,7 @@
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
-      <c r="F174" s="6"/>
+      <c r="F174" s="5"/>
       <c r="G174" s="1"/>
       <c r="H174" s="1"/>
       <c r="I174" s="1"/>
@@ -2734,7 +2734,7 @@
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
       <c r="E175" s="1"/>
-      <c r="F175" s="6"/>
+      <c r="F175" s="5"/>
       <c r="G175" s="1"/>
       <c r="H175" s="1"/>
       <c r="I175" s="1"/>
@@ -2745,7 +2745,7 @@
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
       <c r="E176" s="1"/>
-      <c r="F176" s="6"/>
+      <c r="F176" s="5"/>
       <c r="G176" s="1"/>
       <c r="H176" s="1"/>
       <c r="I176" s="1"/>
@@ -2756,7 +2756,7 @@
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
       <c r="E177" s="1"/>
-      <c r="F177" s="6"/>
+      <c r="F177" s="5"/>
       <c r="G177" s="1"/>
       <c r="H177" s="1"/>
       <c r="I177" s="1"/>
@@ -2767,7 +2767,7 @@
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
       <c r="E178" s="1"/>
-      <c r="F178" s="6"/>
+      <c r="F178" s="5"/>
       <c r="G178" s="1"/>
       <c r="H178" s="1"/>
       <c r="I178" s="1"/>
@@ -2778,7 +2778,7 @@
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
-      <c r="F179" s="6"/>
+      <c r="F179" s="5"/>
       <c r="G179" s="1"/>
       <c r="H179" s="1"/>
       <c r="I179" s="1"/>
@@ -2789,7 +2789,7 @@
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
       <c r="E180" s="1"/>
-      <c r="F180" s="6"/>
+      <c r="F180" s="5"/>
       <c r="G180" s="1"/>
       <c r="H180" s="1"/>
       <c r="I180" s="1"/>
@@ -2800,7 +2800,7 @@
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
-      <c r="F181" s="6"/>
+      <c r="F181" s="5"/>
       <c r="G181" s="1"/>
       <c r="H181" s="1"/>
       <c r="I181" s="1"/>
@@ -2811,7 +2811,7 @@
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
-      <c r="F182" s="6"/>
+      <c r="F182" s="5"/>
       <c r="G182" s="1"/>
       <c r="H182" s="1"/>
       <c r="I182" s="1"/>
@@ -2822,7 +2822,7 @@
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
       <c r="E183" s="1"/>
-      <c r="F183" s="6"/>
+      <c r="F183" s="5"/>
       <c r="G183" s="1"/>
       <c r="H183" s="1"/>
       <c r="I183" s="1"/>
@@ -2833,7 +2833,7 @@
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
       <c r="E184" s="1"/>
-      <c r="F184" s="6"/>
+      <c r="F184" s="5"/>
       <c r="G184" s="1"/>
       <c r="H184" s="1"/>
       <c r="I184" s="1"/>
@@ -2844,7 +2844,7 @@
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
       <c r="E185" s="1"/>
-      <c r="F185" s="6"/>
+      <c r="F185" s="5"/>
       <c r="G185" s="1"/>
       <c r="H185" s="1"/>
       <c r="I185" s="1"/>
@@ -2855,7 +2855,7 @@
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
-      <c r="F186" s="6"/>
+      <c r="F186" s="5"/>
       <c r="G186" s="1"/>
       <c r="H186" s="1"/>
       <c r="I186" s="1"/>
@@ -2866,7 +2866,7 @@
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
       <c r="E187" s="1"/>
-      <c r="F187" s="6"/>
+      <c r="F187" s="5"/>
       <c r="G187" s="1"/>
       <c r="H187" s="1"/>
       <c r="I187" s="1"/>
@@ -2877,7 +2877,7 @@
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
       <c r="E188" s="1"/>
-      <c r="F188" s="6"/>
+      <c r="F188" s="5"/>
       <c r="G188" s="1"/>
       <c r="H188" s="1"/>
       <c r="I188" s="1"/>
@@ -2888,7 +2888,7 @@
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
       <c r="E189" s="1"/>
-      <c r="F189" s="6"/>
+      <c r="F189" s="5"/>
       <c r="G189" s="1"/>
       <c r="H189" s="1"/>
       <c r="I189" s="1"/>
@@ -2899,7 +2899,7 @@
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
       <c r="E190" s="1"/>
-      <c r="F190" s="6"/>
+      <c r="F190" s="5"/>
       <c r="G190" s="1"/>
       <c r="H190" s="1"/>
       <c r="I190" s="1"/>
@@ -2910,7 +2910,7 @@
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
       <c r="E191" s="1"/>
-      <c r="F191" s="6"/>
+      <c r="F191" s="5"/>
       <c r="G191" s="1"/>
       <c r="H191" s="1"/>
       <c r="I191" s="1"/>
@@ -2921,7 +2921,7 @@
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
-      <c r="F192" s="6"/>
+      <c r="F192" s="5"/>
       <c r="G192" s="1"/>
       <c r="H192" s="1"/>
       <c r="I192" s="1"/>
@@ -2932,7 +2932,7 @@
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
       <c r="E193" s="1"/>
-      <c r="F193" s="6"/>
+      <c r="F193" s="5"/>
       <c r="G193" s="1"/>
       <c r="H193" s="1"/>
       <c r="I193" s="1"/>
@@ -2943,7 +2943,7 @@
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
       <c r="E194" s="1"/>
-      <c r="F194" s="6"/>
+      <c r="F194" s="5"/>
       <c r="G194" s="1"/>
       <c r="H194" s="1"/>
       <c r="I194" s="1"/>
@@ -2954,7 +2954,7 @@
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
       <c r="E195" s="1"/>
-      <c r="F195" s="6"/>
+      <c r="F195" s="5"/>
       <c r="G195" s="1"/>
       <c r="H195" s="1"/>
       <c r="I195" s="1"/>
@@ -2965,7 +2965,7 @@
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
       <c r="E196" s="1"/>
-      <c r="F196" s="6"/>
+      <c r="F196" s="5"/>
       <c r="G196" s="1"/>
       <c r="H196" s="1"/>
       <c r="I196" s="1"/>
@@ -2976,7 +2976,7 @@
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
       <c r="E197" s="1"/>
-      <c r="F197" s="6"/>
+      <c r="F197" s="5"/>
       <c r="G197" s="1"/>
       <c r="H197" s="1"/>
       <c r="I197" s="1"/>
@@ -2987,7 +2987,7 @@
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
       <c r="E198" s="1"/>
-      <c r="F198" s="6"/>
+      <c r="F198" s="5"/>
       <c r="G198" s="1"/>
       <c r="H198" s="1"/>
       <c r="I198" s="1"/>
@@ -2998,7 +2998,7 @@
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
       <c r="E199" s="1"/>
-      <c r="F199" s="6"/>
+      <c r="F199" s="5"/>
       <c r="G199" s="1"/>
       <c r="H199" s="1"/>
       <c r="I199" s="1"/>
